--- a/MFE19 Reports/MFE19_ChassisConstantsReport_A1.xlsx
+++ b/MFE19 Reports/MFE19_ChassisConstantsReport_A1.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Lamy\Documents\Professional Life\McGill Racing Team\GitHub\ChassisConstants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Lamy\Documents\Professional Life\McGill Racing Team\GitHub\ChassisConstants\MFE19 Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{F7224E60-9BB5-48A8-878D-412D3B3D40C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="3" r:id="rId1"/>
-    <sheet name="Results" sheetId="4" r:id="rId2"/>
+    <sheet name="Notes &amp; Results" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -105,17 +104,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,16 +192,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,133 +1535,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F30897-BABA-4484-845B-6BDA7351A0A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190749" y="211455"/>
-          <a:ext cx="7915275" cy="1403985"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="3400" b="1" u="sng"/>
-            <a:t>MFE19 Chassis Constants A1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="3400" b="1" u="sng"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1500" b="1" u="sng"/>
-            <a:t>2017/09/10</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165952</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1352551</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>37798</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5B0CA2-999D-4468-9C40-84013069ABC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190501" y="165952"/>
-          <a:ext cx="1771650" cy="1334886"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1974,7 +1838,7 @@
   <dimension ref="Q1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,193 +1864,193 @@
     <row r="9" spans="17:23" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="17:23" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>0</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>2</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>0</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>1.25</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>1.25</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>0</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="5">
         <v>0</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>-1.5</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>-1.25</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>1.25</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>0</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>20</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>20</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>15</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>15</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="5">
         <v>0</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>-3.9058000000000002</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <v>0</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="5">
         <v>-2.4411</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="5">
         <v>-2.4411</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>0</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <v>0</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>-0.66410000000000002</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="5">
         <v>-0.5625</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="5">
         <v>1.9511000000000001</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="5">
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>0</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>0</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="5">
         <v>-18.867699999999999</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="5">
         <v>-13.374599999999999</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="5">
         <v>-11.567500000000001</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="5">
         <v>-13.5009</v>
       </c>
     </row>
     <row r="23" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="5">
         <v>0</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="5">
         <v>0</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="5">
         <v>-0.31169999999999998</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="5">
         <v>2.3348</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="5">
         <v>0.48409999999999997</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="5">
         <v>-14.96</v>
       </c>
     </row>
@@ -2196,81 +2060,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B557C330-5A00-4F30-BE67-D19518D6A0BF}">
-  <dimension ref="I1:K22"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="9:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="9:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/MFE19 Reports/MFE19_ChassisConstantsReport_A1.xlsx
+++ b/MFE19 Reports/MFE19_ChassisConstantsReport_A1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Lamy\Documents\Professional Life\McGill Racing Team\GitHub\ChassisConstants\MFE19 Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Al-taher\Documents\GitHub\ChassisConstants\MFE19 Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{F7224E60-9BB5-48A8-878D-412D3B3D40C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9528" windowHeight="7092"/>
   </bookViews>
   <sheets>
     <sheet name="Notes &amp; Results" sheetId="3" r:id="rId1"/>
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Felix Lamy</author>
   </authors>
   <commentList>
-    <comment ref="Q22" authorId="0" shapeId="0" xr:uid="{B339894D-152E-4ED0-8856-A8D0ED07478D}">
+    <comment ref="Q22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Felix Lamy:</t>
         </r>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ride Height Delta from Design Ride Height</t>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Cornering</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Roll Angle [deg]</t>
   </si>
   <si>
-    <t>Pitch Angle [deg]</t>
-  </si>
-  <si>
     <t>Ay [g]</t>
   </si>
   <si>
@@ -103,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,14 +113,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -223,15 +220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -246,8 +243,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448799" y="2066925"/>
-          <a:ext cx="7172325" cy="2600325"/>
+          <a:off x="9734550" y="2076451"/>
+          <a:ext cx="6943726" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -632,7 +629,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Vehicle.wheelbase = 1.6;                    	%Vehicle Wheelbase [m]</a:t>
+            <a:t>Vehicle.wheelbase = 1.56;                    	%Vehicle Wheelbase [m]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -697,33 +694,46 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Vehicle.aero.CL = -3.5;                     	%Vehicle Coefficient of Lift</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vehicle.aero.CD = 1.6;                      	%Vehicle Coeffirient of Drag</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vehicle.aero.CP = 0.45;                     	%Vehiclel Center of Pressure</a:t>
+            <a:t>Vehicle.aero.CL = -4.3;                     	%Vehicle Coefficient of Lift</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vehicle.aero.CD = 1.5;                      	%Vehicle Coeffirient of Drag</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vehicle.aero.CP = 0.52;                     	%Vehicle Center of Pressure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vehicle.aero.A = 1.07;		%Vehicle Frontal Area [m^2]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -775,7 +785,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Vehicle.axle.rear.track = 1.11176;                	%Front Axle Track [m]</a:t>
+            <a:t>Vehicle.axle.rear.track = 1.1176;                	%Front Axle Track [m]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -996,20 +1006,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Vehicle.axle.front.ARBe = 6.65;                 	%Front ARB Torsional Stiffness [Nm/deg]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vehicle.axle.rear.ARBe = 5;                  	%Rear ARB Torsional Stiffness [Nm/deg]</a:t>
+            <a:t>Vehicle.axle.front.ARBe = 0;                 	%Front ARB Torsional Stiffness [Nm/deg]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vehicle.axle.rear.ARBe = 0;                  	%Rear ARB Torsional Stiffness [Nm/deg]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1834,11 +1844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24461AA8-6383-40A6-A7C0-99A1C3EDFB49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1886,7 +1896,7 @@
     </row>
     <row r="16" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -1909,7 +1919,7 @@
     </row>
     <row r="17" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -1932,13 +1942,13 @@
     </row>
     <row r="18" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
       </c>
       <c r="S18" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T18" s="5">
         <v>20</v>
@@ -1970,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>-3.9058000000000002</v>
+        <v>-1.84487517901658</v>
       </c>
       <c r="T20" s="5">
         <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>-2.4411</v>
+        <v>-1.1530469868853599</v>
       </c>
       <c r="V20" s="5">
-        <v>-2.4411</v>
+        <v>-1.1530469868853599</v>
       </c>
       <c r="W20" s="5">
         <v>0</v>
@@ -1987,25 +1997,25 @@
     </row>
     <row r="21" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q21" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>0</v>
+        <v>-3.23805491850761</v>
       </c>
       <c r="T21" s="5">
-        <v>-0.66410000000000002</v>
+        <v>-27.215434595669102</v>
       </c>
       <c r="U21" s="5">
-        <v>-0.5625</v>
+        <v>-19.171636001341</v>
       </c>
       <c r="V21" s="5">
-        <v>1.9511000000000001</v>
+        <v>2.22318638111703</v>
       </c>
       <c r="W21" s="5">
-        <v>5.2600000000000001E-2</v>
+        <v>-20.2378432406725</v>
       </c>
     </row>
     <row r="22" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
@@ -2016,24 +2026,24 @@
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>0</v>
+        <v>-3.0542903655625899</v>
       </c>
       <c r="T22" s="5">
-        <v>-18.867699999999999</v>
+        <v>2.357740579648</v>
       </c>
       <c r="U22" s="5">
-        <v>-13.374599999999999</v>
+        <v>5.2735983790661498</v>
       </c>
       <c r="V22" s="5">
-        <v>-11.567500000000001</v>
+        <v>-16.588754683781399</v>
       </c>
       <c r="W22" s="5">
-        <v>-13.5009</v>
+        <v>-19.089314784766199</v>
       </c>
     </row>
     <row r="23" spans="17:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R23" s="5">
         <v>0</v>
